--- a/Disc Golf Log.xlsx
+++ b/Disc Golf Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bdc7fcfc2fa380f4/Documents/Misc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacka\Desktop\Library\code projects\disc-golf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="11_F25DC773A252ABDACC104846491F6D3C5BDE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E8389CD-CEE3-4B8F-AB98-C8E62092816A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832C63F0-5127-43A1-A6F3-2FCC4F62C29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1965" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -181,8 +181,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K13" headerRowDxfId="2">
-  <autoFilter ref="A1:K13" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K14" headerRowDxfId="2">
+  <autoFilter ref="A1:K14" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
   <tableColumns count="11">
     <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="0"/>
@@ -463,22 +463,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -513,7 +513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -536,7 +536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -597,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -658,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -710,7 +710,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -768,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -794,7 +794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -847,6 +847,41 @@
       </c>
       <c r="I13">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44263</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Disc Golf Log.xlsx
+++ b/Disc Golf Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacka\Desktop\Library\code projects\disc-golf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832C63F0-5127-43A1-A6F3-2FCC4F62C29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D687E726-03B2-441E-A513-106320582222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1965" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -181,8 +181,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K14" headerRowDxfId="2">
-  <autoFilter ref="A1:K14" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K15" headerRowDxfId="2">
+  <autoFilter ref="A1:K15" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
   <tableColumns count="11">
     <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="0"/>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,6 +884,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44264</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Disc Golf Log.xlsx
+++ b/Disc Golf Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacka\Desktop\Library\code projects\disc-golf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D687E726-03B2-441E-A513-106320582222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D72267E-A9C6-4941-940C-FC274823D9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -181,8 +181,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K15" headerRowDxfId="2">
-  <autoFilter ref="A1:K15" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K16" headerRowDxfId="2">
+  <autoFilter ref="A1:K16" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
   <tableColumns count="11">
     <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="0"/>
@@ -463,22 +463,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -513,7 +513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -536,7 +536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -597,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -658,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -710,7 +710,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -768,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -794,7 +794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -849,7 +849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -884,7 +884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -908,6 +908,35 @@
       </c>
       <c r="J15">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44267</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Disc Golf Log.xlsx
+++ b/Disc Golf Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacka\Desktop\Library\code projects\disc-golf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D72267E-A9C6-4941-940C-FC274823D9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3107E5E7-3D49-4B6A-A3D0-F0B6E0200957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -181,8 +181,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K16" headerRowDxfId="2">
-  <autoFilter ref="A1:K16" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K18" headerRowDxfId="2">
+  <autoFilter ref="A1:K18" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
   <tableColumns count="11">
     <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="0"/>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,6 +939,64 @@
         <v>9</v>
       </c>
     </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44268</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>-6</v>
+      </c>
+      <c r="G17">
+        <v>-5</v>
+      </c>
+      <c r="H17">
+        <v>-2</v>
+      </c>
+      <c r="I17">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44268</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Disc Golf Log.xlsx
+++ b/Disc Golf Log.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacka\Desktop\Library\code projects\disc-golf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3107E5E7-3D49-4B6A-A3D0-F0B6E0200957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE5D798-7818-45B2-9B10-760B2159191B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
+    <sheet name="Courses" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -87,6 +88,27 @@
   </si>
   <si>
     <t>Murdock Park</t>
+  </si>
+  <si>
+    <t>Pickett Park</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Holes</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Wooded</t>
   </si>
 </sst>
 </file>
@@ -118,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,22 +148,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="21" formatCode="d\-mmm"/>
     </dxf>
@@ -181,11 +236,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K18" headerRowDxfId="2">
-  <autoFilter ref="A1:K18" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K20" headerRowDxfId="5">
+  <autoFilter ref="A1:K20" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
   <tableColumns count="11">
-    <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{8135455B-49F4-40BC-AAD4-EFD1D9BA6454}" name="Course"/>
     <tableColumn id="3" xr3:uid="{FCE7AF0F-8931-4590-8215-F8EC7B569A05}" name="Temp"/>
     <tableColumn id="4" xr3:uid="{37F3378D-E2CC-4E8E-9C5B-891B47616A84}" name="Wind"/>
@@ -197,6 +252,19 @@
     <tableColumn id="10" xr3:uid="{65E2D2B2-A48F-4D3F-A5B1-3ED6E16C6705}" name="Luke" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB14FE74-9A94-43BF-844A-7743F344B133}" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:D6" xr:uid="{103A124D-B556-46CB-953D-02357D79BBF2}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FF4BC384-386E-4D73-8C4C-D9317D63BA25}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{0D859B03-1A84-419C-B1CB-D65D6CC8D377}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{D5B8E974-0622-490C-A036-D2F30122D23B}" name="Holes"/>
+    <tableColumn id="4" xr3:uid="{AE922ED2-89F9-4B54-9132-31BD1518133C}" name="Style"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -463,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,7 +1007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -968,7 +1036,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -995,6 +1063,168 @@
       </c>
       <c r="I18">
         <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44271</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>-2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44272</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAFF01D-A0B6-4DB7-8CF9-232B1403E21F}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Disc Golf Log.xlsx
+++ b/Disc Golf Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacka\Desktop\Library\code projects\disc-golf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE5D798-7818-45B2-9B10-760B2159191B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D69AC31-FF81-42A8-B27A-F6E41AEEDFDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -176,17 +176,17 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -236,8 +236,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K20" headerRowDxfId="5">
-  <autoFilter ref="A1:K20" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K23" headerRowDxfId="5">
+  <autoFilter ref="A1:K23" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
   <tableColumns count="11">
     <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="3"/>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB14FE74-9A94-43BF-844A-7743F344B133}" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB14FE74-9A94-43BF-844A-7743F344B133}" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:D6" xr:uid="{103A124D-B556-46CB-953D-02357D79BBF2}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FF4BC384-386E-4D73-8C4C-D9317D63BA25}" name="ID"/>
@@ -531,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1120,6 +1120,87 @@
         <v>6</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44279</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44281</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44282</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>-5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1133,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAFF01D-A0B6-4DB7-8CF9-232B1403E21F}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Disc Golf Log.xlsx
+++ b/Disc Golf Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacka\Desktop\Library\code projects\disc-golf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D69AC31-FF81-42A8-B27A-F6E41AEEDFDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207D611A-C0B9-4C6B-AF0A-AF046FA337F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -236,8 +236,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K23" headerRowDxfId="5">
-  <autoFilter ref="A1:K23" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K26" headerRowDxfId="5">
+  <autoFilter ref="A1:K26" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
   <tableColumns count="11">
     <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="3"/>
@@ -531,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,6 +1199,90 @@
       </c>
       <c r="J23">
         <v>-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44288</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>-2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44288</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>-5</v>
+      </c>
+      <c r="I25">
+        <v>-4</v>
+      </c>
+      <c r="J25">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Disc Golf Log.xlsx
+++ b/Disc Golf Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacka\Desktop\Library\code projects\disc-golf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207D611A-C0B9-4C6B-AF0A-AF046FA337F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAB8569-FC15-4C5E-B716-943C2A3CC05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -236,8 +236,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K26" headerRowDxfId="5">
-  <autoFilter ref="A1:K26" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K27" headerRowDxfId="5">
+  <autoFilter ref="A1:K27" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
   <tableColumns count="11">
     <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="3"/>
@@ -531,22 +531,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -581,7 +581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -604,7 +604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -636,7 +636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -726,7 +726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -752,7 +752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -778,7 +778,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -804,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -836,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -862,7 +862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -888,7 +888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -917,7 +917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -952,7 +952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1283,6 +1283,32 @@
       </c>
       <c r="I26">
         <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1302,13 +1328,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1322,7 +1348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1336,7 +1362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1350,7 +1376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1364,7 +1390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1378,7 +1404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>

--- a/Disc Golf Log.xlsx
+++ b/Disc Golf Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacka\Desktop\Library\code projects\disc-golf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAB8569-FC15-4C5E-B716-943C2A3CC05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAF67F9-B275-4873-A8EA-8EEF82480B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Wooded</t>
+  </si>
+  <si>
+    <t>Murdock Park Long</t>
   </si>
 </sst>
 </file>
@@ -236,8 +239,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K27" headerRowDxfId="5">
-  <autoFilter ref="A1:K27" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K28" headerRowDxfId="5">
+  <autoFilter ref="A1:K28" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
   <tableColumns count="11">
     <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="3"/>
@@ -256,8 +259,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB14FE74-9A94-43BF-844A-7743F344B133}" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:D6" xr:uid="{103A124D-B556-46CB-953D-02357D79BBF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB14FE74-9A94-43BF-844A-7743F344B133}" name="Table2" displayName="Table2" ref="A1:D7" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:D7" xr:uid="{103A124D-B556-46CB-953D-02357D79BBF2}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FF4BC384-386E-4D73-8C4C-D9317D63BA25}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0D859B03-1A84-419C-B1CB-D65D6CC8D377}" name="Name"/>
@@ -531,22 +534,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -581,7 +584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -604,7 +607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -636,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -665,7 +668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -694,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -726,7 +729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -752,7 +755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -778,7 +781,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -804,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -836,7 +839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -862,7 +865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -888,7 +891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -917,7 +920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -952,7 +955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -978,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1091,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1201,7 +1204,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1309,6 +1312,35 @@
       </c>
       <c r="J27">
         <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44291</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="I28">
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1322,19 +1354,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAFF01D-A0B6-4DB7-8CF9-232B1403E21F}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1348,7 +1380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1362,7 +1394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1376,7 +1408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1390,7 +1422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1404,7 +1436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1416,6 +1448,20 @@
       </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Disc Golf Log.xlsx
+++ b/Disc Golf Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacka\Desktop\Library\code projects\disc-golf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAF67F9-B275-4873-A8EA-8EEF82480B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90103D2-5EFD-45FE-8973-CF4B3CEE8971}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -239,8 +239,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K28" headerRowDxfId="5">
-  <autoFilter ref="A1:K28" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K29" headerRowDxfId="5">
+  <autoFilter ref="A1:K29" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
   <tableColumns count="11">
     <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="3"/>
@@ -534,22 +534,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -584,7 +584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -607,7 +607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -639,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -668,7 +668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -729,7 +729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -755,7 +755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -781,7 +781,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -807,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -839,7 +839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -865,7 +865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -891,7 +891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -920,7 +920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -955,7 +955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1341,6 +1341,32 @@
       </c>
       <c r="K28">
         <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44298</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1360,13 +1386,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1380,7 +1406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1394,7 +1420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1408,7 +1434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1422,7 +1448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1436,7 +1462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1450,7 +1476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>

--- a/Disc Golf Log.xlsx
+++ b/Disc Golf Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacka\Desktop\Library\code projects\disc-golf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90103D2-5EFD-45FE-8973-CF4B3CEE8971}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988B68B6-98A8-4770-8902-289F6F27F263}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -239,8 +239,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K29" headerRowDxfId="5">
-  <autoFilter ref="A1:K29" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K31" headerRowDxfId="5">
+  <autoFilter ref="A1:K31" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
   <tableColumns count="11">
     <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="3"/>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,6 +1367,52 @@
       </c>
       <c r="I29">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44299</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44300</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Disc Golf Log.xlsx
+++ b/Disc Golf Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacka\Desktop\Library\code projects\disc-golf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988B68B6-98A8-4770-8902-289F6F27F263}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF020B6-FA90-4971-B79A-D68CF7D1CE1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="3285" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -179,28 +179,6 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="21" formatCode="d\-mmm"/>
     </dxf>
     <dxf>
@@ -225,6 +203,28 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -239,11 +239,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K31" headerRowDxfId="5">
-  <autoFilter ref="A1:K31" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K32" headerRowDxfId="2">
+  <autoFilter ref="A1:K32" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
   <tableColumns count="11">
-    <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{8135455B-49F4-40BC-AAD4-EFD1D9BA6454}" name="Course"/>
     <tableColumn id="3" xr3:uid="{FCE7AF0F-8931-4590-8215-F8EC7B569A05}" name="Temp"/>
     <tableColumn id="4" xr3:uid="{37F3378D-E2CC-4E8E-9C5B-891B47616A84}" name="Wind"/>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB14FE74-9A94-43BF-844A-7743F344B133}" name="Table2" displayName="Table2" ref="A1:D7" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB14FE74-9A94-43BF-844A-7743F344B133}" name="Table2" displayName="Table2" ref="A1:D7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:D7" xr:uid="{103A124D-B556-46CB-953D-02357D79BBF2}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FF4BC384-386E-4D73-8C4C-D9317D63BA25}" name="ID"/>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,6 +1413,32 @@
       </c>
       <c r="I31">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44308</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>16</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Disc Golf Log.xlsx
+++ b/Disc Golf Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacka\Desktop\Library\code projects\disc-golf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF020B6-FA90-4971-B79A-D68CF7D1CE1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC4023-C699-4A06-BFAC-83CBB57DE241}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5625" yWindow="3285" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Murdock Park Long</t>
+  </si>
+  <si>
+    <t>Camp Cullom</t>
   </si>
 </sst>
 </file>
@@ -179,6 +182,28 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="21" formatCode="d\-mmm"/>
     </dxf>
     <dxf>
@@ -203,28 +228,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -239,11 +242,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K32" headerRowDxfId="2">
-  <autoFilter ref="A1:K32" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9813111D-3F94-4B2E-BF56-38203262304B}" name="Table1" displayName="Table1" ref="A1:K33" headerRowDxfId="5">
+  <autoFilter ref="A1:K33" xr:uid="{D7E3CC45-758E-48FF-9C97-B30E501D38AF}"/>
   <tableColumns count="11">
-    <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{FD429444-4138-4547-9C04-CA5C13E89493}" name="Round" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{CF5936D8-E120-4D26-BB75-469C9CAEB4D1}" name="Date" totalsRowLabel="Total" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{8135455B-49F4-40BC-AAD4-EFD1D9BA6454}" name="Course"/>
     <tableColumn id="3" xr3:uid="{FCE7AF0F-8931-4590-8215-F8EC7B569A05}" name="Temp"/>
     <tableColumn id="4" xr3:uid="{37F3378D-E2CC-4E8E-9C5B-891B47616A84}" name="Wind"/>
@@ -259,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB14FE74-9A94-43BF-844A-7743F344B133}" name="Table2" displayName="Table2" ref="A1:D7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:D7" xr:uid="{103A124D-B556-46CB-953D-02357D79BBF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB14FE74-9A94-43BF-844A-7743F344B133}" name="Table2" displayName="Table2" ref="A1:D8" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:D8" xr:uid="{103A124D-B556-46CB-953D-02357D79BBF2}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FF4BC384-386E-4D73-8C4C-D9317D63BA25}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0D859B03-1A84-419C-B1CB-D65D6CC8D377}" name="Name"/>
@@ -534,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,6 +1444,35 @@
         <v>9</v>
       </c>
     </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44311</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>-4</v>
+      </c>
+      <c r="K33">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1452,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAFF01D-A0B6-4DB7-8CF9-232B1403E21F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,6 +1594,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
